--- a/coin_v5.xlsx
+++ b/coin_v5.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="500" windowWidth="22800" windowHeight="15260" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15260" windowWidth="22800" xWindow="240" yWindow="500"/>
   </bookViews>
   <sheets>
     <sheet name="ETC" sheetId="1" state="visible" r:id="rId1"/>
@@ -46,19 +46,19 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -463,7 +463,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
@@ -482,7 +482,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -500,6 +500,6 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>